--- a/data/trans_dic/CoPsoQ_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/CoPsoQ_R2-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.3636007922503707</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4031569202253962</v>
+        <v>0.4031569202253961</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.42179987888163</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3298073716732809</v>
+        <v>0.3181294683448658</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2819841150731184</v>
+        <v>0.2802748521054622</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2507851612198398</v>
+        <v>0.2549571461712487</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3136269452800108</v>
+        <v>0.3019885799186641</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3340633995509651</v>
+        <v>0.3440632167987978</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3494158529744302</v>
+        <v>0.3564769428437488</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3454676333119954</v>
+        <v>0.3527761243285977</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3244467992624934</v>
+        <v>0.3242776517459565</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3298875563731016</v>
+        <v>0.3443303076026678</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.508645771673031</v>
+        <v>0.507724119756281</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4561219168684661</v>
+        <v>0.4488247504742798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5695644045195546</v>
+        <v>0.5784512312467947</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5385780654588698</v>
+        <v>0.5369171824433133</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5371708104973149</v>
+        <v>0.5338206236570576</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6236375834063379</v>
+        <v>0.6223887786404559</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4890464569694952</v>
+        <v>0.4909443131710887</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4613222834678997</v>
+        <v>0.4569486887796516</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5494300197533277</v>
+        <v>0.5591251557466225</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.5226700526818215</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2652554298381277</v>
+        <v>0.2652554298381278</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.5778579385670056</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5349379502781895</v>
+        <v>0.5380520691051888</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4508923634235458</v>
+        <v>0.4396855205751413</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.134663258499861</v>
+        <v>0.1434647520250918</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4801008271155734</v>
+        <v>0.4732972399598099</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5011694917711349</v>
+        <v>0.5044852711387549</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3313065014480475</v>
+        <v>0.3219809574909327</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5431213238878235</v>
+        <v>0.5404746578051399</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.490952384505372</v>
+        <v>0.481928722809733</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2595950549274021</v>
+        <v>0.257538019964008</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6966583970957474</v>
+        <v>0.6971057321848692</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5973077624716272</v>
+        <v>0.6044328149266019</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4108177660402974</v>
+        <v>0.4566874874002074</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.671498153714019</v>
+        <v>0.6629049127057155</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6824181948655338</v>
+        <v>0.682231825661749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5998134819346358</v>
+        <v>0.5972925260725827</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6635816864033783</v>
+        <v>0.6567670291193686</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6052619708197644</v>
+        <v>0.6113862741286467</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4610669091977364</v>
+        <v>0.4669502036630964</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.4095548028336294</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.4375918034057502</v>
+        <v>0.4375918034057501</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.5016990904861544</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4828898893230677</v>
+        <v>0.4839976710496549</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3441334638732748</v>
+        <v>0.3474740523188998</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1113955610977491</v>
+        <v>0.1037388853507667</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2840002961182512</v>
+        <v>0.2873947296005483</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.297579992611792</v>
+        <v>0.3092058934214242</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2648262616811337</v>
+        <v>0.2917859960970289</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4337310523920532</v>
+        <v>0.4365301390921356</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3531575793829455</v>
+        <v>0.3550647616539814</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2355008334415438</v>
+        <v>0.236505125851928</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6502596109395425</v>
+        <v>0.6428706210999326</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5136322844239717</v>
+        <v>0.5200284043123151</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4126623383800876</v>
+        <v>0.4304063263172463</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.511396567493432</v>
+        <v>0.5027814712176224</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5068180596271225</v>
+        <v>0.5212224326574695</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5873382161251295</v>
+        <v>0.5951960344855426</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5743612378955196</v>
+        <v>0.5688196116223342</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4852494133977664</v>
+        <v>0.4846602745958222</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.483490421108141</v>
+        <v>0.4531995835245194</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.4265860918024107</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.4025417577370148</v>
+        <v>0.4025417577370147</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.5394409148397598</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4769559051499939</v>
+        <v>0.4762594143695801</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3553061502102409</v>
+        <v>0.3467421678864865</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2032187306372041</v>
+        <v>0.2054684368213292</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4042405751037813</v>
+        <v>0.4036725761744821</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3220221625835879</v>
+        <v>0.318973398322972</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2434931811066327</v>
+        <v>0.2473450746585728</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4709118035932863</v>
+        <v>0.4808221607744983</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3640438936855096</v>
+        <v>0.3664636060404041</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2621353296446748</v>
+        <v>0.2701597029391123</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6461079963694458</v>
+        <v>0.642590009310566</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5494795642175782</v>
+        <v>0.5394344170855836</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.56450813315819</v>
+        <v>0.5614636789745181</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6040389997203374</v>
+        <v>0.6139044031165463</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5408149259206773</v>
+        <v>0.5430100189401363</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5654892198495378</v>
+        <v>0.5820876831942743</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.606333241527895</v>
+        <v>0.6068691637921485</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5158114463903156</v>
+        <v>0.518750254221846</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5164000730687278</v>
+        <v>0.5096091419359841</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2331119849671701</v>
+        <v>0.2407147505000156</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5166645397601548</v>
+        <v>0.5168931237896185</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.190621385522841</v>
+        <v>0.2126248574585163</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3264120140496162</v>
+        <v>0.3300238435315238</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4594472058930925</v>
+        <v>0.4609117342655335</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05196257625189932</v>
+        <v>0.05062745090977773</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3065398523563979</v>
+        <v>0.3108043425969867</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5258158440958975</v>
+        <v>0.5320334009229538</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.162616398200062</v>
+        <v>0.1551225044723699</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.46079489576599</v>
+        <v>0.4610492468487272</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7302275355306778</v>
+        <v>0.7285222036181653</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.55738681987813</v>
+        <v>0.5702409270770643</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6082192038385519</v>
+        <v>0.6015611877436549</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.712598597657871</v>
+        <v>0.7010051605365597</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3020247316303524</v>
+        <v>0.3081354003128864</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4746859216623942</v>
+        <v>0.4840978232290301</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6960899633671674</v>
+        <v>0.6890411922536905</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3917191682461829</v>
+        <v>0.3899810551916221</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.5380086963634245</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.4729711670649112</v>
+        <v>0.4729711670649111</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.407457722774749</v>
@@ -1200,7 +1200,7 @@
         <v>0.5902714310906998</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.5634739785915523</v>
+        <v>0.5634739785915522</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.5269178341533433</v>
@@ -1209,7 +1209,7 @@
         <v>0.5595818395123711</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.5066283555868237</v>
+        <v>0.5066283555868236</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.479018511987413</v>
+        <v>0.4921563962053679</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4465108590161653</v>
+        <v>0.4398329992221481</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3136079729337597</v>
+        <v>0.3244262343159873</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2817785073834806</v>
+        <v>0.2794472098749743</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4744577815269682</v>
+        <v>0.4776768216882833</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3599979857943247</v>
+        <v>0.3826526865896945</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4413022907750047</v>
+        <v>0.4481005033187432</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4832517565826995</v>
+        <v>0.4876070613923995</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3838676103088081</v>
+        <v>0.3804379850334397</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6775944772092651</v>
+        <v>0.6807653635960719</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6310704698635963</v>
+        <v>0.6311283927590967</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6435618812414389</v>
+        <v>0.6397739369024801</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5372871290069259</v>
+        <v>0.5495406295367027</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6972249598980877</v>
+        <v>0.7084856272184445</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7466860866951067</v>
+        <v>0.743481865190222</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6050989290061615</v>
+        <v>0.601994230814823</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6356338853121966</v>
+        <v>0.6333581837146585</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6262166344869498</v>
+        <v>0.6458088449576718</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1309,7 @@
         <v>0.4898618965370087</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.4659849581313377</v>
+        <v>0.4659849581313378</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.5069661014124369</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4848993338197185</v>
+        <v>0.4815022026781056</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4070728350566582</v>
+        <v>0.407484341594432</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2586379510690553</v>
+        <v>0.2352413609954948</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.360495356947784</v>
+        <v>0.3762375743640278</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4314409764527086</v>
+        <v>0.4287390023745264</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3760651168095783</v>
+        <v>0.3723491226046035</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.459066618588064</v>
+        <v>0.4588601798532351</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4339875559414013</v>
+        <v>0.4358507263181871</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3389314975431998</v>
+        <v>0.3413017909676138</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6100788184889208</v>
+        <v>0.60834532885617</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5180171871328854</v>
+        <v>0.5202723982406654</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4805378829579434</v>
+        <v>0.4746548316667236</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.522026985456059</v>
+        <v>0.5294283633884338</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5508214816355038</v>
+        <v>0.548516740154566</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5585278690470068</v>
+        <v>0.5599503094624888</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5588468842928441</v>
+        <v>0.5572394544424396</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5156956186632351</v>
+        <v>0.5177909401286488</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4890793037786075</v>
+        <v>0.4923493639849704</v>
       </c>
     </row>
     <row r="25">
@@ -1409,7 +1409,7 @@
         <v>0.7965021768851512</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.5010902946351581</v>
+        <v>0.501090294635158</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.742267951377642</v>
@@ -1418,7 +1418,7 @@
         <v>0.7296004678972824</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.5348629598032698</v>
+        <v>0.5348629598032697</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.726068665214113</v>
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6659754035316084</v>
+        <v>0.6649446711418404</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7504072988542485</v>
+        <v>0.7478243099792345</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4074909616394846</v>
+        <v>0.4100150128345578</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6750200519870048</v>
+        <v>0.6874809699264083</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6688449617411385</v>
+        <v>0.6648207932025741</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.4429435533943817</v>
+        <v>0.4352314916612943</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.6890558402850521</v>
+        <v>0.6855821683895306</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.7300960706956404</v>
+        <v>0.7333443078610921</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4450569286813255</v>
+        <v>0.448198893378582</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7652763231584584</v>
+        <v>0.7668298272902639</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8387985941297502</v>
+        <v>0.8432849099299717</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5943560372175575</v>
+        <v>0.5963594773491391</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7923019916900812</v>
+        <v>0.7970714899552858</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7838646888027657</v>
+        <v>0.7824378824650233</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6270993429838063</v>
+        <v>0.6149719318727135</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7641129839935337</v>
+        <v>0.7629084627660915</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.8015984330629896</v>
+        <v>0.8024649033730055</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5811876793088405</v>
+        <v>0.5787429866974172</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>0.5492552692122116</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.3972603252073339</v>
+        <v>0.397260325207334</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.5433142340123405</v>
@@ -1527,7 +1527,7 @@
         <v>0.5516127117179139</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.4609221198754569</v>
+        <v>0.4609221198754568</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.5670204211383862</v>
@@ -1536,7 +1536,7 @@
         <v>0.5502489460869632</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.4258049708390717</v>
+        <v>0.4258049708390718</v>
       </c>
     </row>
     <row r="29">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5558919396994488</v>
+        <v>0.5522576416574617</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5230754902832964</v>
+        <v>0.5226546970597004</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3423269755702917</v>
+        <v>0.3470534451351499</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5091686102007312</v>
+        <v>0.5119112018312167</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5187002024252619</v>
+        <v>0.5220517387985596</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.4124486453974134</v>
+        <v>0.4159517441710456</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5444954630452787</v>
+        <v>0.5441783341445088</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.528246407919125</v>
+        <v>0.5304153621987521</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.390559618313245</v>
+        <v>0.3918756358498318</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6076253407561226</v>
+        <v>0.6086394946735727</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5797559278839949</v>
+        <v>0.576591863405193</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4508142320791408</v>
+        <v>0.4537052531069058</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5762217168479726</v>
+        <v>0.5766099618323495</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5826716513363942</v>
+        <v>0.5825129860431842</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.5075187279416602</v>
+        <v>0.5086010149513437</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5865539331078564</v>
+        <v>0.5872251502165156</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5710893755946692</v>
+        <v>0.5702857378981977</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.461107150886841</v>
+        <v>0.462753695361647</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40204</v>
+        <v>38780</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>37518</v>
+        <v>37291</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10242</v>
+        <v>10413</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>26081</v>
+        <v>25113</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>33430</v>
+        <v>34430</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11440</v>
+        <v>11671</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>70841</v>
+        <v>72340</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>75635</v>
+        <v>75596</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>24274</v>
+        <v>25337</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>62004</v>
+        <v>61892</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>60687</v>
+        <v>59717</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23262</v>
+        <v>23625</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>44787</v>
+        <v>44649</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>53755</v>
+        <v>53419</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>20419</v>
+        <v>20378</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>100283</v>
+        <v>100672</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>107543</v>
+        <v>106524</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>40428</v>
+        <v>41142</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>91622</v>
+        <v>92155</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>76786</v>
+        <v>74877</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6974</v>
+        <v>7430</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>57906</v>
+        <v>57086</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>56973</v>
+        <v>57350</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14261</v>
+        <v>13859</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>158531</v>
+        <v>157759</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>139419</v>
+        <v>136857</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>24619</v>
+        <v>24424</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>119321</v>
+        <v>119397</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>101720</v>
+        <v>102933</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21277</v>
+        <v>23652</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>80991</v>
+        <v>79955</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>77577</v>
+        <v>77556</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>25818</v>
+        <v>25710</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>193692</v>
+        <v>191703</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>171880</v>
+        <v>173620</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>43725</v>
+        <v>44283</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>64874</v>
+        <v>65023</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>43219</v>
+        <v>43639</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3209</v>
+        <v>2988</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>22248</v>
+        <v>22514</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>25096</v>
+        <v>26076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7225</v>
+        <v>7960</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>92247</v>
+        <v>92843</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>74136</v>
+        <v>74536</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13208</v>
+        <v>13265</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>87359</v>
+        <v>86366</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>64507</v>
+        <v>65310</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11887</v>
+        <v>12398</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40062</v>
+        <v>39387</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>42741</v>
+        <v>43956</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16023</v>
+        <v>16238</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>122157</v>
+        <v>120978</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>101865</v>
+        <v>101741</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27117</v>
+        <v>25418</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>67549</v>
+        <v>67451</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>39858</v>
+        <v>38898</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13863</v>
+        <v>14016</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>40556</v>
+        <v>40499</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>26360</v>
+        <v>26111</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10878</v>
+        <v>11050</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>113939</v>
+        <v>116336</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>70639</v>
+        <v>71108</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>29592</v>
+        <v>30498</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>91506</v>
+        <v>91007</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>61641</v>
+        <v>60514</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>38508</v>
+        <v>38300</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>60601</v>
+        <v>61591</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>44271</v>
+        <v>44450</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25263</v>
+        <v>26004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>146704</v>
+        <v>146834</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>100088</v>
+        <v>100658</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>58296</v>
+        <v>57529</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18948</v>
+        <v>19566</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>41814</v>
+        <v>41832</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4226</v>
+        <v>4714</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>17543</v>
+        <v>17737</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>25462</v>
+        <v>25543</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1209</v>
+        <v>1178</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>41391</v>
+        <v>41967</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>71694</v>
+        <v>72542</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>7389</v>
+        <v>7048</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>37454</v>
+        <v>37475</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>59097</v>
+        <v>58959</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12358</v>
+        <v>12643</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>32689</v>
+        <v>32332</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>39491</v>
+        <v>38848</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7027</v>
+        <v>7169</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>64096</v>
+        <v>65367</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>94910</v>
+        <v>93949</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>17799</v>
+        <v>17720</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>54879</v>
+        <v>56384</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>48001</v>
+        <v>47283</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>10493</v>
+        <v>10855</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>15580</v>
+        <v>15451</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>35854</v>
+        <v>36097</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>7132</v>
+        <v>7581</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>74959</v>
+        <v>76113</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>88469</v>
+        <v>89267</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>20449</v>
+        <v>20266</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>77629</v>
+        <v>77992</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>67841</v>
+        <v>67848</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>21534</v>
+        <v>21407</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>29708</v>
+        <v>30385</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>52688</v>
+        <v>53539</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>14793</v>
+        <v>14729</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>102781</v>
+        <v>102254</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>116366</v>
+        <v>115950</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>33359</v>
+        <v>34403</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>129380</v>
+        <v>128474</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>146088</v>
+        <v>146236</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>23337</v>
+        <v>21226</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>64568</v>
+        <v>67388</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>122463</v>
+        <v>121696</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>35055</v>
+        <v>34709</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>204711</v>
+        <v>204619</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>278933</v>
+        <v>280130</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>62175</v>
+        <v>62610</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>162781</v>
+        <v>162318</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>185903</v>
+        <v>186713</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>43359</v>
+        <v>42828</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>93500</v>
+        <v>94826</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>156348</v>
+        <v>155694</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>52064</v>
+        <v>52196</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>249206</v>
+        <v>248489</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>331448</v>
+        <v>332795</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>89719</v>
+        <v>90319</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>238423</v>
+        <v>238054</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>246068</v>
+        <v>245221</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>55783</v>
+        <v>56129</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>172374</v>
+        <v>175557</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>158655</v>
+        <v>157700</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>44277</v>
+        <v>43506</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>422645</v>
+        <v>420514</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>412591</v>
+        <v>414427</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>105414</v>
+        <v>106158</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>273974</v>
+        <v>274530</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>275053</v>
+        <v>276524</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>81364</v>
+        <v>81639</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>202324</v>
+        <v>203542</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>185938</v>
+        <v>185600</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>62685</v>
+        <v>61473</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>468682</v>
+        <v>467944</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>452999</v>
+        <v>453488</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>137657</v>
+        <v>137078</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>772590</v>
+        <v>767539</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>740851</v>
+        <v>740255</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>161718</v>
+        <v>163951</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>471463</v>
+        <v>474003</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>535289</v>
+        <v>538748</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>158377</v>
+        <v>159722</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1260925</v>
+        <v>1260190</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1293315</v>
+        <v>1298625</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>334475</v>
+        <v>335602</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>844490</v>
+        <v>845899</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>821130</v>
+        <v>816648</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>212968</v>
+        <v>214334</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>533551</v>
+        <v>533910</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>601307</v>
+        <v>601143</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>194883</v>
+        <v>195299</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1358322</v>
+        <v>1359877</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1398208</v>
+        <v>1396241</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>394892</v>
+        <v>396302</v>
       </c>
     </row>
     <row r="40">
